--- a/content字段含义.xlsx
+++ b/content字段含义.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idea\Desktop\hw项目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idea\Desktop\hw项目\初处理数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B518A15A-5DE3-474E-8BF4-922671F876AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD7648E-147B-4BD2-A07B-A366587B9EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{7814D0C2-A32B-402D-92A3-7464FC4B3CC8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="242">
   <si>
     <t>顺序</t>
   </si>
@@ -1236,17 +1236,23 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1255,6 +1261,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1281,29 +1299,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1674,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86FE668-E257-40C3-9639-F88C7FBBBC2F}">
   <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="F178" sqref="F178"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1714,10 +1714,10 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="13">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1728,8 +1728,8 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1738,8 +1738,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1748,8 +1748,8 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1758,8 +1758,8 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1768,8 +1768,8 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1778,8 +1778,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1788,8 +1788,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1798,8 +1798,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1808,8 +1808,8 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
@@ -1818,8 +1818,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
@@ -1828,8 +1828,8 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
@@ -1838,8 +1838,8 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1848,8 +1848,8 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
@@ -1858,8 +1858,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1868,8 +1868,8 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="4" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1878,8 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
@@ -1888,8 +1888,8 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="4" t="s">
         <v>25</v>
       </c>
@@ -1898,8 +1898,8 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="4" t="s">
         <v>26</v>
       </c>
@@ -1908,8 +1908,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
@@ -1918,8 +1918,8 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="4" t="s">
         <v>28</v>
       </c>
@@ -1928,8 +1928,8 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="4" t="s">
         <v>29</v>
       </c>
@@ -1938,8 +1938,8 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="4" t="s">
         <v>30</v>
       </c>
@@ -1948,8 +1948,8 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="4" t="s">
         <v>31</v>
       </c>
@@ -1958,8 +1958,8 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="4" t="s">
         <v>32</v>
       </c>
@@ -1968,8 +1968,8 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="4" t="s">
         <v>33</v>
       </c>
@@ -1978,18 +1978,18 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="16">
+      <c r="A30" s="18">
         <v>3</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -2000,8 +2000,8 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="7" t="s">
         <v>11</v>
       </c>
@@ -2010,8 +2010,8 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="7" t="s">
         <v>59</v>
       </c>
@@ -2020,8 +2020,8 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="7" t="s">
         <v>60</v>
       </c>
@@ -2030,8 +2030,8 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="7" t="s">
         <v>61</v>
       </c>
@@ -2040,8 +2040,8 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="7" t="s">
         <v>15</v>
       </c>
@@ -2050,8 +2050,8 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="7" t="s">
         <v>16</v>
       </c>
@@ -2060,8 +2060,8 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="7" t="s">
         <v>62</v>
       </c>
@@ -2070,8 +2070,8 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="7" t="s">
         <v>18</v>
       </c>
@@ -2080,8 +2080,8 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="7" t="s">
         <v>24</v>
       </c>
@@ -2090,8 +2090,8 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="7" t="s">
         <v>63</v>
       </c>
@@ -2100,8 +2100,8 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="7" t="s">
         <v>64</v>
       </c>
@@ -2110,8 +2110,8 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="7" t="s">
         <v>34</v>
       </c>
@@ -2120,8 +2120,8 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="7" t="s">
         <v>65</v>
       </c>
@@ -2130,8 +2130,8 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="7" t="s">
         <v>66</v>
       </c>
@@ -2140,8 +2140,8 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="7" t="s">
         <v>67</v>
       </c>
@@ -2150,8 +2150,8 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="7" t="s">
         <v>68</v>
       </c>
@@ -2160,8 +2160,8 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="7" t="s">
         <v>69</v>
       </c>
@@ -2170,8 +2170,8 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="7" t="s">
         <v>70</v>
       </c>
@@ -2180,8 +2180,8 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="7" t="s">
         <v>71</v>
       </c>
@@ -2190,8 +2190,8 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="7" t="s">
         <v>28</v>
       </c>
@@ -2200,8 +2200,8 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="7" t="s">
         <v>72</v>
       </c>
@@ -2210,8 +2210,8 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="7" t="s">
         <v>31</v>
       </c>
@@ -2220,8 +2220,8 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="7" t="s">
         <v>32</v>
       </c>
@@ -2230,8 +2230,8 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="7" t="s">
         <v>73</v>
       </c>
@@ -2240,106 +2240,106 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="13">
+      <c r="A57" s="21">
         <v>4</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="21" t="s">
         <v>80</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D58" s="14"/>
+      <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
       <c r="C59" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="14"/>
+      <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D61" s="14"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D62" s="14"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D63" s="14"/>
+      <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D64" s="23"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="14"/>
+      <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D66" s="15"/>
+      <c r="D66" s="22"/>
     </row>
     <row r="67" spans="1:4" ht="14.25" thickBot="1">
       <c r="A67" s="2">
@@ -2678,10 +2678,10 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="16">
+      <c r="A91" s="18">
         <v>29</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="18" t="s">
         <v>158</v>
       </c>
       <c r="C91" s="6" t="s">
@@ -2692,8 +2692,8 @@
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
       <c r="C92" s="10" t="s">
         <v>160</v>
       </c>
@@ -2702,8 +2702,8 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="17"/>
-      <c r="B93" s="17"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
       <c r="C93" s="7" t="s">
         <v>161</v>
       </c>
@@ -2712,8 +2712,8 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="17"/>
-      <c r="B94" s="17"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
       <c r="C94" s="7" t="s">
         <v>9</v>
       </c>
@@ -2722,8 +2722,8 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="19"/>
       <c r="C95" s="7" t="s">
         <v>162</v>
       </c>
@@ -2732,117 +2732,117 @@
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="19"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="19"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="17"/>
-      <c r="B99" s="17"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="19"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="17"/>
-      <c r="B100" s="17"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="19"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="17"/>
-      <c r="B101" s="17"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="19"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="17"/>
-      <c r="B102" s="17"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="19"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="17"/>
-      <c r="B103" s="17"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="19"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="17"/>
-      <c r="B104" s="17"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="19"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="17"/>
-      <c r="B105" s="17"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="17"/>
-      <c r="B106" s="17"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="19"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="17"/>
-      <c r="B107" s="17"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="19"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7">
         <v>1693212077000</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A108" s="18"/>
-      <c r="B108" s="18"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="13">
+      <c r="A109" s="21">
         <v>30</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C109" s="20" t="s">
+      <c r="C109" s="26" t="s">
         <v>238</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -2850,149 +2850,149 @@
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="14"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
+      <c r="A110" s="23"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
       <c r="D110" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="14"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
+      <c r="A111" s="23"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
       <c r="D111" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="14"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
       <c r="D112" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="14"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
+      <c r="A113" s="23"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
       <c r="D113" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="14"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
+      <c r="A114" s="23"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
       <c r="D114" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="14"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
+      <c r="A115" s="23"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
       <c r="D115" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="14"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
+      <c r="A116" s="23"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
       <c r="D116" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="14"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
+      <c r="A117" s="23"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
       <c r="D117" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="14"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
+      <c r="A118" s="23"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="23"/>
       <c r="D118" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="14"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
+      <c r="A119" s="23"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23"/>
       <c r="D119" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="14"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
+      <c r="A120" s="23"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="23"/>
       <c r="D120" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="14"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
+      <c r="A121" s="23"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
       <c r="D121" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="14"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
+      <c r="A122" s="23"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
       <c r="D122" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="14"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
+      <c r="A123" s="23"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="23"/>
       <c r="D123" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="14"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
+      <c r="A124" s="23"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
       <c r="D124" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="14"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
+      <c r="A125" s="23"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
       <c r="D125" s="4">
         <v>1693212077000</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="15"/>
+      <c r="A126" s="22"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
       <c r="D126" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="27">
+      <c r="A127" s="15">
         <v>31</v>
       </c>
-      <c r="B127" s="24" t="s">
+      <c r="B127" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="C127" s="21" t="s">
+      <c r="C127" s="27" t="s">
         <v>239</v>
       </c>
       <c r="D127" s="3" t="s">
@@ -3000,137 +3000,137 @@
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="28"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="22"/>
+      <c r="A128" s="16"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="28"/>
       <c r="D128" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="28"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="22"/>
+      <c r="A129" s="16"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="28"/>
       <c r="D129" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="28"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="22"/>
+      <c r="A130" s="16"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="28"/>
       <c r="D130" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="28"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="22"/>
+      <c r="A131" s="16"/>
+      <c r="B131" s="31"/>
+      <c r="C131" s="28"/>
       <c r="D131" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="28"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="22"/>
+      <c r="A132" s="16"/>
+      <c r="B132" s="31"/>
+      <c r="C132" s="28"/>
       <c r="D132" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="28"/>
-      <c r="B133" s="25"/>
-      <c r="C133" s="22"/>
+      <c r="A133" s="16"/>
+      <c r="B133" s="31"/>
+      <c r="C133" s="28"/>
       <c r="D133" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="28"/>
-      <c r="B134" s="25"/>
-      <c r="C134" s="22"/>
+      <c r="A134" s="16"/>
+      <c r="B134" s="31"/>
+      <c r="C134" s="28"/>
       <c r="D134" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="28"/>
-      <c r="B135" s="25"/>
-      <c r="C135" s="22"/>
+      <c r="A135" s="16"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="28"/>
       <c r="D135" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="28"/>
-      <c r="B136" s="25"/>
-      <c r="C136" s="22"/>
+      <c r="A136" s="16"/>
+      <c r="B136" s="31"/>
+      <c r="C136" s="28"/>
       <c r="D136" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="28"/>
-      <c r="B137" s="25"/>
-      <c r="C137" s="22"/>
+      <c r="A137" s="16"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="28"/>
       <c r="D137" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="28"/>
-      <c r="B138" s="25"/>
-      <c r="C138" s="22"/>
+      <c r="A138" s="16"/>
+      <c r="B138" s="31"/>
+      <c r="C138" s="28"/>
       <c r="D138" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="28"/>
-      <c r="B139" s="25"/>
-      <c r="C139" s="22"/>
+      <c r="A139" s="16"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="28"/>
       <c r="D139" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="28"/>
-      <c r="B140" s="25"/>
-      <c r="C140" s="22"/>
+      <c r="A140" s="16"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="28"/>
       <c r="D140" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="28"/>
-      <c r="B141" s="25"/>
-      <c r="C141" s="22"/>
+      <c r="A141" s="16"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="28"/>
       <c r="D141" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="28"/>
-      <c r="B142" s="25"/>
-      <c r="C142" s="22"/>
+      <c r="A142" s="16"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="28"/>
       <c r="D142" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="28"/>
-      <c r="B143" s="25"/>
-      <c r="C143" s="22"/>
+      <c r="A143" s="16"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="28"/>
       <c r="D143" s="4">
         <v>1693212077000</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A144" s="29"/>
-      <c r="B144" s="26"/>
-      <c r="C144" s="23"/>
+      <c r="A144" s="17"/>
+      <c r="B144" s="32"/>
+      <c r="C144" s="29"/>
       <c r="D144" s="5" t="s">
         <v>166</v>
       </c>
@@ -3192,10 +3192,10 @@
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="16">
+      <c r="A149" s="18">
         <v>36</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="B149" s="18" t="s">
         <v>176</v>
       </c>
       <c r="C149" s="6" t="s">
@@ -3206,8 +3206,8 @@
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="17"/>
-      <c r="B150" s="17"/>
+      <c r="A150" s="19"/>
+      <c r="B150" s="19"/>
       <c r="C150" s="7" t="s">
         <v>178</v>
       </c>
@@ -3216,8 +3216,8 @@
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="17"/>
-      <c r="B151" s="17"/>
+      <c r="A151" s="19"/>
+      <c r="B151" s="19"/>
       <c r="C151" s="7" t="s">
         <v>179</v>
       </c>
@@ -3226,8 +3226,8 @@
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="17"/>
-      <c r="B152" s="17"/>
+      <c r="A152" s="19"/>
+      <c r="B152" s="19"/>
       <c r="C152" s="7" t="s">
         <v>180</v>
       </c>
@@ -3236,8 +3236,8 @@
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="17"/>
-      <c r="B153" s="17"/>
+      <c r="A153" s="19"/>
+      <c r="B153" s="19"/>
       <c r="C153" s="7" t="s">
         <v>181</v>
       </c>
@@ -3246,8 +3246,8 @@
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="17"/>
-      <c r="B154" s="17"/>
+      <c r="A154" s="19"/>
+      <c r="B154" s="19"/>
       <c r="C154" s="7" t="s">
         <v>182</v>
       </c>
@@ -3256,8 +3256,8 @@
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="17"/>
-      <c r="B155" s="17"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="19"/>
       <c r="C155" s="7" t="s">
         <v>183</v>
       </c>
@@ -3266,8 +3266,8 @@
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="17"/>
-      <c r="B156" s="17"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="19"/>
       <c r="C156" s="7" t="s">
         <v>184</v>
       </c>
@@ -3276,8 +3276,8 @@
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="17"/>
-      <c r="B157" s="17"/>
+      <c r="A157" s="19"/>
+      <c r="B157" s="19"/>
       <c r="C157" s="7" t="s">
         <v>185</v>
       </c>
@@ -3286,8 +3286,8 @@
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="17"/>
-      <c r="B158" s="17"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="19"/>
       <c r="C158" s="7" t="s">
         <v>186</v>
       </c>
@@ -3296,8 +3296,8 @@
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="17"/>
-      <c r="B159" s="17"/>
+      <c r="A159" s="19"/>
+      <c r="B159" s="19"/>
       <c r="C159" s="7" t="s">
         <v>56</v>
       </c>
@@ -3306,192 +3306,190 @@
       </c>
     </row>
     <row r="160" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A160" s="18"/>
-      <c r="B160" s="18"/>
+      <c r="A160" s="20"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="8" t="s">
         <v>187</v>
       </c>
       <c r="D160" s="8"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="13">
+      <c r="A161" s="21">
         <v>37</v>
       </c>
-      <c r="B161" s="13" t="s">
+      <c r="B161" s="21" t="s">
         <v>195</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D161" s="13" t="s">
+      <c r="D161" s="21" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A162" s="15"/>
-      <c r="B162" s="15"/>
+      <c r="A162" s="22"/>
+      <c r="B162" s="22"/>
       <c r="C162" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D162" s="15"/>
+      <c r="D162" s="22"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="16">
+      <c r="A163" s="18">
         <v>38</v>
       </c>
-      <c r="B163" s="16" t="s">
+      <c r="B163" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D163" s="16" t="s">
+      <c r="D163" s="18" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="17"/>
-      <c r="B164" s="17"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="19"/>
       <c r="C164" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D164" s="17"/>
+      <c r="D164" s="19"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="17"/>
-      <c r="B165" s="17"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="19"/>
       <c r="C165" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D165" s="17"/>
+      <c r="D165" s="19"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="17"/>
-      <c r="B166" s="17"/>
+      <c r="A166" s="19"/>
+      <c r="B166" s="19"/>
       <c r="C166" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D166" s="17"/>
+      <c r="D166" s="19"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="17"/>
-      <c r="B167" s="17"/>
+      <c r="A167" s="19"/>
+      <c r="B167" s="19"/>
       <c r="C167" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D167" s="17"/>
+      <c r="D167" s="19"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="17"/>
-      <c r="B168" s="17"/>
+      <c r="A168" s="19"/>
+      <c r="B168" s="19"/>
       <c r="C168" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D168" s="17"/>
+      <c r="D168" s="19"/>
     </row>
     <row r="169" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A169" s="18"/>
-      <c r="B169" s="18"/>
+      <c r="A169" s="20"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D169" s="18"/>
+      <c r="D169" s="20"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="13">
+      <c r="A170" s="21">
         <v>39</v>
       </c>
-      <c r="B170" s="13" t="s">
+      <c r="B170" s="21" t="s">
         <v>208</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D170" s="13" t="s">
+      <c r="D170" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="E170" s="33"/>
+      <c r="E170" s="12"/>
     </row>
     <row r="171" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A171" s="15"/>
-      <c r="B171" s="15"/>
+      <c r="A171" s="22"/>
+      <c r="B171" s="22"/>
       <c r="C171" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D171" s="15"/>
-      <c r="E171" s="34"/>
+      <c r="D171" s="22"/>
+      <c r="E171" s="13"/>
     </row>
     <row r="172" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A172" s="30">
+      <c r="A172" s="18">
         <v>40</v>
       </c>
-      <c r="B172" s="32" t="s">
+      <c r="B172" s="24" t="s">
         <v>240</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D172" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="E172" s="12" t="s">
+      <c r="E172" s="14" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A173" s="31"/>
-      <c r="B173" s="31"/>
+      <c r="A173" s="20"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D173" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E173" s="12"/>
+      <c r="D173" s="34"/>
+      <c r="E173" s="14"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="16">
+      <c r="A174" s="18">
         <v>41</v>
       </c>
-      <c r="B174" s="16" t="s">
+      <c r="B174" s="18" t="s">
         <v>214</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D174" s="16" t="s">
+      <c r="D174" s="18" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="17"/>
-      <c r="B175" s="17"/>
+      <c r="A175" s="19"/>
+      <c r="B175" s="19"/>
       <c r="C175" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D175" s="17"/>
+      <c r="D175" s="19"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="17"/>
-      <c r="B176" s="17"/>
+      <c r="A176" s="19"/>
+      <c r="B176" s="19"/>
       <c r="C176" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D176" s="17"/>
+      <c r="D176" s="19"/>
     </row>
     <row r="177" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A177" s="18"/>
-      <c r="B177" s="18"/>
+      <c r="A177" s="20"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D177" s="18"/>
+      <c r="D177" s="20"/>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="13">
+      <c r="A178" s="21">
         <v>42</v>
       </c>
-      <c r="B178" s="13" t="s">
+      <c r="B178" s="21" t="s">
         <v>218</v>
       </c>
       <c r="C178" s="3" t="s">
@@ -3502,8 +3500,8 @@
       </c>
     </row>
     <row r="179" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A179" s="15"/>
-      <c r="B179" s="15"/>
+      <c r="A179" s="22"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="5" t="s">
         <v>220</v>
       </c>
@@ -3526,13 +3524,13 @@
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="13">
+      <c r="A181" s="21">
         <v>44</v>
       </c>
-      <c r="B181" s="13" t="s">
+      <c r="B181" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="C181" s="21" t="s">
         <v>227</v>
       </c>
       <c r="D181" s="3" t="s">
@@ -3540,29 +3538,29 @@
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="14"/>
-      <c r="B182" s="14"/>
-      <c r="C182" s="14"/>
+      <c r="A182" s="23"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="23"/>
       <c r="D182" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A183" s="15"/>
-      <c r="B183" s="15"/>
-      <c r="C183" s="15"/>
+      <c r="A183" s="22"/>
+      <c r="B183" s="22"/>
+      <c r="C183" s="22"/>
       <c r="D183" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="16">
+      <c r="A184" s="18">
         <v>45</v>
       </c>
-      <c r="B184" s="16" t="s">
+      <c r="B184" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="C184" s="16" t="s">
+      <c r="C184" s="18" t="s">
         <v>232</v>
       </c>
       <c r="D184" s="6" t="s">
@@ -3570,23 +3568,48 @@
       </c>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="17"/>
-      <c r="B185" s="17"/>
-      <c r="C185" s="17"/>
+      <c r="A185" s="19"/>
+      <c r="B185" s="19"/>
+      <c r="C185" s="19"/>
       <c r="D185" s="7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A186" s="18"/>
-      <c r="B186" s="18"/>
-      <c r="C186" s="18"/>
+      <c r="A186" s="20"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
       <c r="D186" s="8" t="s">
         <v>230</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="41">
+    <mergeCell ref="C127:C144"/>
+    <mergeCell ref="B127:B144"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="D57:D66"/>
+    <mergeCell ref="A91:A108"/>
+    <mergeCell ref="B91:B108"/>
+    <mergeCell ref="A109:A126"/>
+    <mergeCell ref="B109:B126"/>
+    <mergeCell ref="C109:C126"/>
+    <mergeCell ref="A3:A29"/>
+    <mergeCell ref="B3:B29"/>
+    <mergeCell ref="A30:A56"/>
+    <mergeCell ref="B30:B56"/>
+    <mergeCell ref="A57:A66"/>
+    <mergeCell ref="B57:B66"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="A149:A160"/>
+    <mergeCell ref="B149:B160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="A163:A169"/>
+    <mergeCell ref="B163:B169"/>
+    <mergeCell ref="D163:D169"/>
+    <mergeCell ref="D170:D171"/>
     <mergeCell ref="E172:E173"/>
     <mergeCell ref="A127:A144"/>
     <mergeCell ref="A184:A186"/>
@@ -3603,30 +3626,6 @@
     <mergeCell ref="A172:A173"/>
     <mergeCell ref="A174:A177"/>
     <mergeCell ref="B174:B177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="A149:A160"/>
-    <mergeCell ref="B149:B160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="A163:A169"/>
-    <mergeCell ref="B163:B169"/>
-    <mergeCell ref="D163:D169"/>
-    <mergeCell ref="A3:A29"/>
-    <mergeCell ref="B3:B29"/>
-    <mergeCell ref="A30:A56"/>
-    <mergeCell ref="B30:B56"/>
-    <mergeCell ref="A57:A66"/>
-    <mergeCell ref="B57:B66"/>
-    <mergeCell ref="D57:D66"/>
-    <mergeCell ref="A91:A108"/>
-    <mergeCell ref="B91:B108"/>
-    <mergeCell ref="A109:A126"/>
-    <mergeCell ref="B109:B126"/>
-    <mergeCell ref="C109:C126"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="C127:C144"/>
-    <mergeCell ref="B127:B144"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
